--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxtuno\Desktop\UE\SpecterFront\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st061327\Desktop\SpectorFront\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="設計" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲームの要素" sheetId="2" r:id="rId2"/>
+    <sheet name="設計" sheetId="4" r:id="rId3"/>
+    <sheet name="継承関係" sheetId="5" r:id="rId4"/>
+    <sheet name="主要クラス" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -33,192 +37,904 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シーケンサーによりプレイヤーの移動を表現</t>
+    <t>このゲームは照準を操作して次々に迫りくる妖怪を撃破し、</t>
+    <rPh sb="6" eb="8">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツギツギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの最後に待ち構えるボスの討伐を目指すガンシューティングである。</t>
+    <rPh sb="16" eb="18">
+      <t>トウバツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの要素</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公の移動や、視点変更は自動で行われるため、プレイヤーは敵の迎撃に集中できる</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゲイゲキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・妖怪</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラスボスのみ大仏</t>
+    <rPh sb="6" eb="8">
+      <t>ダイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・倒さなければならない敵、倒さなくてもいい敵</t>
+    <rPh sb="1" eb="2">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての敵を倒さないといけないわけではなく、</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無視できる敵が存在</t>
+    <rPh sb="0" eb="2">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシステム的にはボーナスという位置づけで倒すと高得点など</t>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>コウトクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーにとって利益をもたらす存在</t>
+    <rPh sb="9" eb="11">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・障害物</t>
+    <rPh sb="1" eb="4">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚敵はすべて妖怪</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊できる障害物</t>
+    <rPh sb="0" eb="2">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただの画面賑やかし</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・世界観</t>
+    <rPh sb="1" eb="4">
+      <t>セカイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和風</t>
+    <rPh sb="0" eb="2">
+      <t>ワフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江戸時代くらい？</t>
+    <rPh sb="0" eb="2">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・主人公</t>
+    <rPh sb="1" eb="4">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカ帰り</t>
+    <rPh sb="4" eb="5">
+      <t>ガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカに影響を受けて話し方が似非外国人風</t>
+    <rPh sb="5" eb="7">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタ</t>
+    </rPh>
     <rPh sb="15" eb="17">
-      <t>イドウ</t>
+      <t>エセ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラスボスを倒せばクリア</t>
+    <rPh sb="5" eb="6">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒すまでの時間や、スコアを競う</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAbstractEnemySpawner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AEnemySpawner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASpawnDirector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABaseEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABaseHumanoidEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのSpawnerの基底クラス</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の生成を行うクラスの基底クラス</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spawnerの実行順序などを制御する</t>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての敵の基底クラス</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の生成を管理するクラスをSpawnerと呼ぶこととする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spawnerについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にSpawner自身の場所が敵を生成する位置に影響を与える</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、Spawnerの実行順などを管理するクラスは位置の影響は受けない</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンサーよりレベルBPに対してイベントを発生させ、敵の出現タイミングを伝える</t>
-    <rPh sb="14" eb="15">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハッセイ</t>
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承関係</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身の位置がどこにあっても関係ない</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Enemyについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BP_SequentialSpawnDirector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」などは登録したSpawnerを順番に起動していくだけなので</t>
+    </r>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>例) 「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BP_EnemySpawner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」は自身の座標に敵を一体生成する</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザヒョウ</t>
     </rPh>
     <rPh sb="27" eb="28">
       <t>テキ</t>
     </rPh>
     <rPh sb="29" eb="31">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なぜこのような設計になっているかというとシーケンサーはレベルBPに対してのみイベントを発生させることが出来るため</t>
-    <rPh sb="7" eb="9">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベルBPはシーケンサーからイベントを受け取った時点でレベル上に存在するBP_ActionPhaseManagerアクターに対してイベント発生を伝える</t>
-    <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BP_ActionPhaseManagerは、BP_ActionPhaseを管理するクラスで、レベルBPからイベントを受け取る毎に登録した順番にBP_ActionPhaseを起動する</t>
-    <rPh sb="38" eb="40">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BP_ActionPhaseはアクションフェーズ(戦闘シーン)を管理する</t>
-    <rPh sb="25" eb="27">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主に敵の発生順、その他演出などを担当する</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一体のみの生成ではなく複数体生成することも可能であり、生成の終了タイミングをコントローラに通知する</t>
-    <rPh sb="0" eb="2">
       <t>イッタイ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="31" eb="33">
       <t>セイセイ</t>
     </rPh>
-    <rPh sb="11" eb="14">
-      <t>フクスウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の生成にはAEnemySpawnControllerまたはその派生クラスを使用する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>具体的には「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAbstractEnemySpawner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を継承したクラス、またはBPクラスのことを指す</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>敵を表すオブジェクトは全て、「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IEnemyInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を実装する</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイセイ</t>
+    <rPh sb="2" eb="3">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
     </rPh>
     <rPh sb="32" eb="34">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>また、人型以外の敵は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABaseEnemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を継承する</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ヒトガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>人型の敵は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABaseHumanoidEnemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を継承する</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒトガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>全ての敵をまとめて扱いたい場合は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IEnemyInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を介して操作する</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本設計</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にはC++のコードをBPで継承して使用する</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EnemySpawnerは、敵の発生源を意味する</t>
-    <rPh sb="14" eb="15">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ハッセイゲン</t>
+    <t>C++に書いたほうが都合のいい処理はC++に書く(複雑な計算処理など)</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンパイル時間などを考慮すると多少複雑でもBPに書いたほうがいい場合は多い</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPに書いたほうが都合のいい処理はBPに書く(単純な処理の流れを記述するなど)</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タンジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動は基本的にシーケンサーを使用</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
     </rPh>
     <rPh sb="20" eb="22">
-      <t>イミ</t>
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションフェーズの複雑な制御はプログラムで行う</t>
+    <rPh sb="10" eb="12">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的にシーケンサーの再開位置までプレイヤーの位置、カメラ角度をプログラム上で補間</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -227,7 +943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +968,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,13 +999,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -281,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +1044,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,6 +1075,606 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169068</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1778793" y="723900"/>
+          <a:ext cx="1819275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AAbstractEnemySpawner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="1876425"/>
+          <a:ext cx="1819275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AEnemySpawner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105149" y="1876425"/>
+          <a:ext cx="1819275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ASpawnDirector</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="2962275"/>
+          <a:ext cx="1819275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BP_EnemySpawner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028949" y="2962275"/>
+          <a:ext cx="1971675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BP_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>equentialSpawnDirector</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4014787" y="2390775"/>
+          <a:ext cx="0" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2688431" y="1238250"/>
+          <a:ext cx="1326356" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1357313" y="1238250"/>
+          <a:ext cx="1331118" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1357313" y="2390775"/>
+          <a:ext cx="0" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="4048125"/>
+          <a:ext cx="1819275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BP_RandomEnemySpawner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1357313" y="3476625"/>
+          <a:ext cx="0" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,48 +1967,369 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -15,8 +15,10 @@
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="ゲームの要素" sheetId="2" r:id="rId2"/>
     <sheet name="設計" sheetId="4" r:id="rId3"/>
-    <sheet name="継承関係" sheetId="5" r:id="rId4"/>
+    <sheet name="継承関係(一部)" sheetId="5" r:id="rId4"/>
     <sheet name="主要クラス" sheetId="3" r:id="rId5"/>
+    <sheet name="インターフェイス" sheetId="6" r:id="rId6"/>
+    <sheet name="BPクラス" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -346,10 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ABaseHumanoidEnemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全てのSpawnerの基底クラス</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
@@ -389,26 +387,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全ての敵の基底クラス</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の生成を管理するクラスをSpawnerと呼ぶこととする</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -475,16 +453,6 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>継承関係</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,6 +903,239 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Enemyの動作について</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ごとに個別に作る必要があるところは作る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIControllerを作成すれば違う敵でも動作を使いまわすことができる</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIControllerはAIごとに作る</t>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ敵でも違う動きをする敵を作りたければ個別に作る</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIControllerはAIControllerを継承して作ることができる</t>
+    <rPh sb="26" eb="28">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIControllerからビヘイビアツリーとブラックボードを使用してAIを作成する</t>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承関係(一部)</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターフェイス名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IEnemyInterface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのEnemyが実装するInterface</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDamageListener</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージを受けるアクタ</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemyの基底クラス(人型以外)</t>
+    <rPh sb="6" eb="8">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABaseHumanoidEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemyの基底クラス(人型)</t>
+    <rPh sb="6" eb="8">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンサー上でイベントを発生、イベントはレベルBPでしか受け取れない仕様</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルBPは、レベル上に存在するゲーム進行を統括するBPへメッセージを送り、ゲーム進行を制御</t>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウカツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2105,130 +2306,185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
+      <c r="A12" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>39</v>
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>43</v>
+      <c r="A23" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>49</v>
+      <c r="A26" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2237,14 +2493,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2256,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2281,7 +2537,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2289,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2297,7 +2553,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -2305,15 +2561,15 @@
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -2327,6 +2583,99 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st061327\Desktop\SpectorFront\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxtuno\Desktop\UE\SpecterFront\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1136,6 +1136,39 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーのカメラワークについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActionPhaseがSpawnerを起動するタイミングでプレイヤーに敵情報などとともに通知</t>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ制御には専用のクラスを用意</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2306,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2479,7 +2512,19 @@
       <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
